--- a/cocos-prog/03-tool/gj/enemy.xlsx
+++ b/cocos-prog/03-tool/gj/enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15680"/>
+    <workbookView windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>

--- a/cocos-prog/03-tool/gj/enemy.xlsx
+++ b/cocos-prog/03-tool/gj/enemy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14680"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>标题</t>
   </si>
@@ -110,6 +110,9 @@
     <t>lv_mag_def</t>
   </si>
   <si>
+    <t>山贼强盗</t>
+  </si>
+  <si>
     <t>强盗头子</t>
   </si>
   <si>
@@ -120,6 +123,45 @@
   </si>
   <si>
     <t>鬼怪</t>
+  </si>
+  <si>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>白骨士兵</t>
+  </si>
+  <si>
+    <t>白骨弓箭手</t>
+  </si>
+  <si>
+    <t>白骨将军</t>
+  </si>
+  <si>
+    <t>白骨之王</t>
+  </si>
+  <si>
+    <t>海妖</t>
+  </si>
+  <si>
+    <t>水鬼</t>
+  </si>
+  <si>
+    <t>鱼人</t>
+  </si>
+  <si>
+    <t>嗜血鱼人</t>
+  </si>
+  <si>
+    <t>叛军</t>
+  </si>
+  <si>
+    <t>叛军首领</t>
+  </si>
+  <si>
+    <t>幽灵树精</t>
+  </si>
+  <si>
+    <t>幽灵树王</t>
   </si>
 </sst>
 </file>
@@ -132,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,14 +192,6 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -645,137 +679,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -784,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1313,19 +1344,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="14" max="14" width="12.2307692307692" customWidth="1"/>
-    <col min="16" max="16" width="12.1538461538462" customWidth="1"/>
+    <col min="14" max="14" width="12.2333333333333" customWidth="1"/>
+    <col min="16" max="16" width="12.15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" ht="16.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1425,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" ht="16.5" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1475,86 +1506,86 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>7</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1655,6 +1686,598 @@
       </c>
       <c r="P7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>300</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>95</v>
+      </c>
+      <c r="J13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>450</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19">
+        <v>2250</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>95</v>
+      </c>
+      <c r="J19">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>330</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>27</v>
+      </c>
+      <c r="K20">
+        <v>15</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21">
+        <v>2750</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>87</v>
+      </c>
+      <c r="H21">
+        <v>114</v>
+      </c>
+      <c r="I21">
+        <v>54</v>
+      </c>
+      <c r="J21">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
